--- a/MicroDepGraph/Data analysis.xlsx
+++ b/MicroDepGraph/Data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Universidad\SWME\SME-Group1\MicroDepGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F81EC4-7F7E-4AAB-9A76-3DFB285DD4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1D313-C3F8-4F54-9731-3284A007CB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="9420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>PROJECTS NAME</t>
   </si>
@@ -75,6 +75,48 @@
   </si>
   <si>
     <t>data-services-javaee7</t>
+  </si>
+  <si>
+    <t>e-ground-2019</t>
+  </si>
+  <si>
+    <t>empathy_delivery</t>
+  </si>
+  <si>
+    <t>LakesideMutual</t>
+  </si>
+  <si>
+    <t>lelylan</t>
+  </si>
+  <si>
+    <t>Microservices-Demo</t>
+  </si>
+  <si>
+    <t>odm-ondocker</t>
+  </si>
+  <si>
+    <t>rsa</t>
+  </si>
+  <si>
+    <t>springboot-graphql-databases</t>
+  </si>
+  <si>
+    <t>spring-petclinic-microservices</t>
+  </si>
+  <si>
+    <t>event-sourcing-microservices-example</t>
+  </si>
+  <si>
+    <t>LearnMicro</t>
+  </si>
+  <si>
+    <t>spring-cloud-microservice-examples</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix-example</t>
+  </si>
+  <si>
+    <t>eShopOnContainers-dev</t>
   </si>
 </sst>
 </file>
@@ -425,12 +467,12 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B18" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
@@ -485,21 +527,21 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <f>C2/D2</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="1">
         <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <f>F2/G2</f>
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -553,7 +595,9 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -571,7 +615,9 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -589,7 +635,9 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -607,7 +655,9 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -625,7 +675,9 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -643,7 +695,9 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -661,7 +715,9 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -679,7 +735,9 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -697,7 +755,9 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -715,7 +775,9 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -733,7 +795,9 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -751,7 +815,9 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -769,7 +835,9 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -787,7 +855,9 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>

--- a/MicroDepGraph/Data analysis.xlsx
+++ b/MicroDepGraph/Data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Universidad\SWME\SME-Group1\MicroDepGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1D313-C3F8-4F54-9731-3284A007CB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17486D24-A1FF-49C0-A808-7CA45660725E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="9420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>PROJECTS NAME</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>eShopOnContainers-dev</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:B18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,8 +549,12 @@
         <f>F2/G2</f>
         <v>1.375</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -556,19 +566,29 @@
       <c r="C3" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="e">
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E18" si="0">C3/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H18" si="1">F3/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -580,299 +600,505 @@
       <c r="C4" s="1">
         <v>14</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MicroDepGraph/Data analysis.xlsx
+++ b/MicroDepGraph/Data analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Universidad\SWME\SME-Group1\MicroDepGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17486D24-A1FF-49C0-A808-7CA45660725E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495E0355-65F8-4672-96BB-A5FD19337531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,6 +205,1144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Data analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>e-commerce-microservices-sample</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cqrs-microservice-sampler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>data-services-javaee7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>e-ground-2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empathy_delivery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LakesideMutual</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lelylan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Microservices-Demo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>odm-ondocker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rsa</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>springboot-graphql-databases</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>spring-petclinic-microservices</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>event-sourcing-microservices-example</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LearnMicro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>spring-cloud-microservice-examples</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>spring-cloud-netflix-example</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>eShopOnContainers-dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1041-4D7C-8D52-634A486CB186}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>e-commerce-microservices-sample</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cqrs-microservice-sampler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>data-services-javaee7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>e-ground-2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empathy_delivery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LakesideMutual</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lelylan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Microservices-Demo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>odm-ondocker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rsa</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>springboot-graphql-databases</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>spring-petclinic-microservices</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>event-sourcing-microservices-example</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LearnMicro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>spring-cloud-microservice-examples</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>spring-cloud-netflix-example</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>eShopOnContainers-dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1818181818181819</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1041-4D7C-8D52-634A486CB186}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2103685696"/>
+        <c:axId val="2108597952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103685696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108597952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108597952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2103685696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFE92BE-8C6E-4B3B-96DD-7172D9FF69BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,5 +2241,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>